--- a/examples/output_analysis_example1.xlsx
+++ b/examples/output_analysis_example1.xlsx
@@ -308,7 +308,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10800000" cy="5400000"/>
+    <ext cx="5040000" cy="5400000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
